--- a/data/pca/factorExposure/factorExposure_2016-04-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-04-20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01098179064332594</v>
+        <v>0.01531888896523054</v>
       </c>
       <c r="C2">
-        <v>0.05285365749387937</v>
+        <v>0.03817849251309945</v>
       </c>
       <c r="D2">
-        <v>-0.0431744377017586</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.05977010585439298</v>
+      </c>
+      <c r="E2">
+        <v>0.09551295952808439</v>
+      </c>
+      <c r="F2">
+        <v>0.0889476521087134</v>
+      </c>
+      <c r="G2">
+        <v>0.02649030277375082</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04041218497750584</v>
+        <v>0.0250646014619291</v>
       </c>
       <c r="C3">
-        <v>0.1207805090995104</v>
+        <v>0.06647859532877602</v>
       </c>
       <c r="D3">
-        <v>-0.08569058143237471</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.07243882219378039</v>
+      </c>
+      <c r="E3">
+        <v>0.07168563545879056</v>
+      </c>
+      <c r="F3">
+        <v>-0.02338444231127313</v>
+      </c>
+      <c r="G3">
+        <v>0.0480455434796587</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06360413231713159</v>
+        <v>0.06078977539803934</v>
       </c>
       <c r="C4">
-        <v>0.06060534975129728</v>
+        <v>0.06273457909877445</v>
       </c>
       <c r="D4">
-        <v>-0.02980273529388952</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.05265963383012356</v>
+      </c>
+      <c r="E4">
+        <v>0.09037265938584592</v>
+      </c>
+      <c r="F4">
+        <v>0.04341070911890671</v>
+      </c>
+      <c r="G4">
+        <v>0.08810672031986486</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.04162360259316487</v>
+        <v>0.03758405445118326</v>
       </c>
       <c r="C6">
-        <v>0.03413781092689139</v>
+        <v>0.02571719617490333</v>
       </c>
       <c r="D6">
-        <v>-0.03150099418275779</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.06083194499186363</v>
+      </c>
+      <c r="E6">
+        <v>0.09032951934477679</v>
+      </c>
+      <c r="F6">
+        <v>0.02661245117335021</v>
+      </c>
+      <c r="G6">
+        <v>0.0649147995705999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02742128694126053</v>
+        <v>0.02148356074071422</v>
       </c>
       <c r="C7">
-        <v>0.04082886043580623</v>
+        <v>0.0358211032145432</v>
       </c>
       <c r="D7">
-        <v>0.006035825393842901</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03728641330647846</v>
+      </c>
+      <c r="E7">
+        <v>0.06888059617233019</v>
+      </c>
+      <c r="F7">
+        <v>0.07001909475722255</v>
+      </c>
+      <c r="G7">
+        <v>0.09732746691718015</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.006937808677538282</v>
+        <v>0.005391711601029852</v>
       </c>
       <c r="C8">
-        <v>0.04170067752742714</v>
+        <v>0.03409351642430126</v>
       </c>
       <c r="D8">
-        <v>-0.02692777086238214</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03232563613131252</v>
+      </c>
+      <c r="E8">
+        <v>0.06311557359419588</v>
+      </c>
+      <c r="F8">
+        <v>0.01983483940538849</v>
+      </c>
+      <c r="G8">
+        <v>0.03683932743340924</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03757462470952098</v>
+        <v>0.03983680306870991</v>
       </c>
       <c r="C9">
-        <v>0.04802038501182062</v>
+        <v>0.05064405558859566</v>
       </c>
       <c r="D9">
-        <v>-0.01425077531211797</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.03858433109459716</v>
+      </c>
+      <c r="E9">
+        <v>0.0735298487228838</v>
+      </c>
+      <c r="F9">
+        <v>0.05802242215106083</v>
+      </c>
+      <c r="G9">
+        <v>0.08077289552522211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07182094573196189</v>
+        <v>0.09772955228614304</v>
       </c>
       <c r="C10">
-        <v>-0.1901615495717335</v>
+        <v>-0.2008152242234278</v>
       </c>
       <c r="D10">
-        <v>0.004652923075603999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01281882801856312</v>
+      </c>
+      <c r="E10">
+        <v>0.03366978080430463</v>
+      </c>
+      <c r="F10">
+        <v>0.01856983409594713</v>
+      </c>
+      <c r="G10">
+        <v>0.0360540565564036</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04255993939069927</v>
+        <v>0.03770406724336715</v>
       </c>
       <c r="C11">
-        <v>0.05089053909489974</v>
+        <v>0.04735547976205411</v>
       </c>
       <c r="D11">
-        <v>-0.01346753235172631</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03102180432955738</v>
+      </c>
+      <c r="E11">
+        <v>0.03061711305044556</v>
+      </c>
+      <c r="F11">
+        <v>0.04075454196264076</v>
+      </c>
+      <c r="G11">
+        <v>0.06798588550545563</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04529468686221921</v>
+        <v>0.039880062509564</v>
       </c>
       <c r="C12">
-        <v>0.046822879142147</v>
+        <v>0.04547109981773183</v>
       </c>
       <c r="D12">
-        <v>-0.002836322196693273</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02615896973503759</v>
+      </c>
+      <c r="E12">
+        <v>0.03703729487819107</v>
+      </c>
+      <c r="F12">
+        <v>0.04190740505108658</v>
+      </c>
+      <c r="G12">
+        <v>0.06557599297533688</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01488885042614862</v>
+        <v>0.0128040173516004</v>
       </c>
       <c r="C13">
-        <v>0.05377784440848189</v>
+        <v>0.04197282034539457</v>
       </c>
       <c r="D13">
-        <v>-0.01033761909486741</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.04398454965033215</v>
+      </c>
+      <c r="E13">
+        <v>0.1051659960632292</v>
+      </c>
+      <c r="F13">
+        <v>0.0590426743151602</v>
+      </c>
+      <c r="G13">
+        <v>0.09456626791453672</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.009917622579322815</v>
+        <v>0.006502768002989873</v>
       </c>
       <c r="C14">
-        <v>0.03863525973863246</v>
+        <v>0.03085543656051487</v>
       </c>
       <c r="D14">
-        <v>0.007548778995164296</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02445703893402743</v>
+      </c>
+      <c r="E14">
+        <v>0.05329541604463934</v>
+      </c>
+      <c r="F14">
+        <v>0.07785795900501719</v>
+      </c>
+      <c r="G14">
+        <v>0.08264996065999804</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>2.435409770537756e-05</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.005231153102112463</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.008132478768854203</v>
+      </c>
+      <c r="E15">
+        <v>0.005002238954465933</v>
+      </c>
+      <c r="F15">
+        <v>0.00692852964550076</v>
+      </c>
+      <c r="G15">
+        <v>0.00749397007853416</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.04027629793703527</v>
+        <v>0.03576107198385253</v>
       </c>
       <c r="C16">
-        <v>0.04785927462160211</v>
+        <v>0.04406448714211492</v>
       </c>
       <c r="D16">
-        <v>-0.005145361854132541</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02499188562655306</v>
+      </c>
+      <c r="E16">
+        <v>0.04358089787862847</v>
+      </c>
+      <c r="F16">
+        <v>0.05238409136346449</v>
+      </c>
+      <c r="G16">
+        <v>0.05610943757077475</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02704068632234016</v>
+        <v>0.01882922348707151</v>
       </c>
       <c r="C19">
-        <v>0.05883614263531561</v>
+        <v>0.04431878214341833</v>
       </c>
       <c r="D19">
-        <v>-0.09244962455085522</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.091285041044953</v>
+      </c>
+      <c r="E19">
+        <v>0.1158517638592611</v>
+      </c>
+      <c r="F19">
+        <v>0.06068648209986883</v>
+      </c>
+      <c r="G19">
+        <v>0.0408125707380981</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01901481281020542</v>
+        <v>0.01518131976151782</v>
       </c>
       <c r="C20">
-        <v>0.04779149595918979</v>
+        <v>0.03876418691363613</v>
       </c>
       <c r="D20">
-        <v>-0.0109020106697416</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.03277432155709895</v>
+      </c>
+      <c r="E20">
+        <v>0.08196864674412715</v>
+      </c>
+      <c r="F20">
+        <v>0.05171561191681284</v>
+      </c>
+      <c r="G20">
+        <v>0.06702945858932494</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01267792588449589</v>
+        <v>0.01106385768421553</v>
       </c>
       <c r="C21">
-        <v>0.05393950622287783</v>
+        <v>0.04336832990361737</v>
       </c>
       <c r="D21">
-        <v>-0.030600139251955</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.05476763155014257</v>
+      </c>
+      <c r="E21">
+        <v>0.1301508063820402</v>
+      </c>
+      <c r="F21">
+        <v>0.08847710886747126</v>
+      </c>
+      <c r="G21">
+        <v>0.09428586354888008</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.001707377356535734</v>
+        <v>0.004212986509875525</v>
       </c>
       <c r="C22">
-        <v>0.001266354391661611</v>
+        <v>0.02788688746760737</v>
       </c>
       <c r="D22">
-        <v>-0.006350821303870128</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.04503167520505694</v>
+      </c>
+      <c r="E22">
+        <v>0.05022596104397671</v>
+      </c>
+      <c r="F22">
+        <v>-0.01076250403880555</v>
+      </c>
+      <c r="G22">
+        <v>0.05626118385586789</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.001713138588686918</v>
+        <v>0.004296631187589774</v>
       </c>
       <c r="C23">
-        <v>0.001285553755763003</v>
+        <v>0.02802867339328615</v>
       </c>
       <c r="D23">
-        <v>-0.006339903326006507</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.0445765635333952</v>
+      </c>
+      <c r="E23">
+        <v>0.05047299104900007</v>
+      </c>
+      <c r="F23">
+        <v>-0.01107233146888302</v>
+      </c>
+      <c r="G23">
+        <v>0.05623060616411792</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03723491538534502</v>
+        <v>0.03617448728412975</v>
       </c>
       <c r="C24">
-        <v>0.05025247648305167</v>
+        <v>0.05225318775484083</v>
       </c>
       <c r="D24">
-        <v>-0.007023371401504727</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.024120478091556</v>
+      </c>
+      <c r="E24">
+        <v>0.04504319040784535</v>
+      </c>
+      <c r="F24">
+        <v>0.05474361563689312</v>
+      </c>
+      <c r="G24">
+        <v>0.06829024766057354</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04901777457581321</v>
+        <v>0.04408178793697957</v>
       </c>
       <c r="C25">
-        <v>0.06097533743204868</v>
+        <v>0.05598535215734127</v>
       </c>
       <c r="D25">
-        <v>0.00367913461427229</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02232434584866901</v>
+      </c>
+      <c r="E25">
+        <v>0.03760243548517428</v>
+      </c>
+      <c r="F25">
+        <v>0.0447616666701607</v>
+      </c>
+      <c r="G25">
+        <v>0.07826156258590185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01667530174907461</v>
+        <v>0.01585512217962414</v>
       </c>
       <c r="C26">
-        <v>0.01823153347858012</v>
+        <v>0.01688370436999365</v>
       </c>
       <c r="D26">
-        <v>-0.001027615716314823</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02392150176093152</v>
+      </c>
+      <c r="E26">
+        <v>0.05492150742079802</v>
+      </c>
+      <c r="F26">
+        <v>0.05946552118592406</v>
+      </c>
+      <c r="G26">
+        <v>0.04941261230347599</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.08600796133500643</v>
+        <v>0.1336517598340808</v>
       </c>
       <c r="C28">
-        <v>-0.2498771334430151</v>
+        <v>-0.2560943311388135</v>
       </c>
       <c r="D28">
-        <v>0.00454622906310114</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.0293147751847226</v>
+      </c>
+      <c r="E28">
+        <v>0.0590747119218859</v>
+      </c>
+      <c r="F28">
+        <v>0.03622345610645129</v>
+      </c>
+      <c r="G28">
+        <v>0.05263174875450473</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.007993183504968436</v>
+        <v>0.00657781430690416</v>
       </c>
       <c r="C29">
-        <v>0.03315202831810078</v>
+        <v>0.02826600027973626</v>
       </c>
       <c r="D29">
-        <v>0.01391503723479014</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01586663968362072</v>
+      </c>
+      <c r="E29">
+        <v>0.05285425704604929</v>
+      </c>
+      <c r="F29">
+        <v>0.06732424360964631</v>
+      </c>
+      <c r="G29">
+        <v>0.08621291423069231</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04710510618590634</v>
+        <v>0.04385129903352167</v>
       </c>
       <c r="C30">
-        <v>0.0538843394888577</v>
+        <v>0.05702815279863593</v>
       </c>
       <c r="D30">
-        <v>-0.08054993797406193</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1010508583131451</v>
+      </c>
+      <c r="E30">
+        <v>0.0823930545693875</v>
+      </c>
+      <c r="F30">
+        <v>0.06879256312470804</v>
+      </c>
+      <c r="G30">
+        <v>0.06535749789804043</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.06064705234475602</v>
+        <v>0.05874078582892749</v>
       </c>
       <c r="C31">
-        <v>0.04582683314988854</v>
+        <v>0.06133999543589726</v>
       </c>
       <c r="D31">
-        <v>0.04290135467868088</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.0187828665484361</v>
+      </c>
+      <c r="E31">
+        <v>0.07182515217104392</v>
+      </c>
+      <c r="F31">
+        <v>0.02415948336034459</v>
+      </c>
+      <c r="G31">
+        <v>0.08243426172069326</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.001691022011597695</v>
+        <v>0.00626719128734506</v>
       </c>
       <c r="C32">
-        <v>0.04320500975895191</v>
+        <v>0.03433739883873668</v>
       </c>
       <c r="D32">
-        <v>-0.05929210421206352</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.05336059785151202</v>
+      </c>
+      <c r="E32">
+        <v>0.0592028944523052</v>
+      </c>
+      <c r="F32">
+        <v>0.06857050377843311</v>
+      </c>
+      <c r="G32">
+        <v>0.06475903456691326</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.03447940040115074</v>
+        <v>0.02829431615135775</v>
       </c>
       <c r="C33">
-        <v>0.05575515645763542</v>
+        <v>0.05107934196747752</v>
       </c>
       <c r="D33">
-        <v>-0.04014370887053591</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.07004432385914347</v>
+      </c>
+      <c r="E33">
+        <v>0.09385224191635841</v>
+      </c>
+      <c r="F33">
+        <v>0.06847997602449386</v>
+      </c>
+      <c r="G33">
+        <v>0.09829131712197185</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.046261275123197</v>
+        <v>0.04168889604723377</v>
       </c>
       <c r="C34">
-        <v>0.06465322814794364</v>
+        <v>0.06266312412029336</v>
       </c>
       <c r="D34">
-        <v>-0.01907573264084263</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03763903960527062</v>
+      </c>
+      <c r="E34">
+        <v>0.01977532080914468</v>
+      </c>
+      <c r="F34">
+        <v>0.05491497498572372</v>
+      </c>
+      <c r="G34">
+        <v>0.06990736341560268</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01741794522917169</v>
+        <v>0.01481611946445317</v>
       </c>
       <c r="C36">
-        <v>0.01675918811706761</v>
+        <v>0.01344461489974567</v>
       </c>
       <c r="D36">
-        <v>0.003199650988290481</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02287523761365915</v>
+      </c>
+      <c r="E36">
+        <v>0.06301122111556819</v>
+      </c>
+      <c r="F36">
+        <v>0.04983996966854772</v>
+      </c>
+      <c r="G36">
+        <v>0.06549110008857881</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03031716406386071</v>
+        <v>0.02375903834326045</v>
       </c>
       <c r="C38">
-        <v>0.03204809945390323</v>
+        <v>0.02415093368840516</v>
       </c>
       <c r="D38">
-        <v>0.01356333175316217</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02051941260809835</v>
+      </c>
+      <c r="E38">
+        <v>0.05221823396358826</v>
+      </c>
+      <c r="F38">
+        <v>0.04159693190216501</v>
+      </c>
+      <c r="G38">
+        <v>0.04557975456649214</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04786815765370288</v>
+        <v>0.04191881184145263</v>
       </c>
       <c r="C39">
-        <v>0.0613923546744707</v>
+        <v>0.06214049366701819</v>
       </c>
       <c r="D39">
-        <v>-0.02040869554082997</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05033897019145701</v>
+      </c>
+      <c r="E39">
+        <v>0.0521447992001717</v>
+      </c>
+      <c r="F39">
+        <v>0.07429773564591802</v>
+      </c>
+      <c r="G39">
+        <v>0.06283579631304255</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01149982463355384</v>
+        <v>0.01404884509767866</v>
       </c>
       <c r="C40">
-        <v>0.0555026492517785</v>
+        <v>0.03901478851193851</v>
       </c>
       <c r="D40">
-        <v>-0.0198683532346595</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03062850680120652</v>
+      </c>
+      <c r="E40">
+        <v>0.09232219336443272</v>
+      </c>
+      <c r="F40">
+        <v>0.03641676553591037</v>
+      </c>
+      <c r="G40">
+        <v>0.1006147360087532</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02274940483100502</v>
+        <v>0.01960885741513931</v>
       </c>
       <c r="C41">
-        <v>0.01262561382140004</v>
+        <v>0.009082597037497992</v>
       </c>
       <c r="D41">
-        <v>-0.001322249979046402</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01459427737822197</v>
+      </c>
+      <c r="E41">
+        <v>0.063489105738845</v>
+      </c>
+      <c r="F41">
+        <v>0.04598703238048731</v>
+      </c>
+      <c r="G41">
+        <v>0.05237116479740452</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04334074322689233</v>
+        <v>0.03108139570053768</v>
       </c>
       <c r="C43">
-        <v>0.0329673425233912</v>
+        <v>0.02417754327161937</v>
       </c>
       <c r="D43">
-        <v>-0.02183106559263101</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.04261034330465931</v>
+      </c>
+      <c r="E43">
+        <v>0.08049677258195705</v>
+      </c>
+      <c r="F43">
+        <v>0.03798302223222891</v>
+      </c>
+      <c r="G43">
+        <v>0.08108037610084837</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01536734981756141</v>
+        <v>0.01708336503364092</v>
       </c>
       <c r="C44">
-        <v>0.06915561586007603</v>
+        <v>0.04704409621533141</v>
       </c>
       <c r="D44">
-        <v>-0.008754913871738627</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.0312121026232134</v>
+      </c>
+      <c r="E44">
+        <v>0.09207662258149546</v>
+      </c>
+      <c r="F44">
+        <v>0.06455312070711747</v>
+      </c>
+      <c r="G44">
+        <v>0.05067092182028091</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01104438117315543</v>
+        <v>0.01181259269382673</v>
       </c>
       <c r="C46">
-        <v>0.0274186030207396</v>
+        <v>0.02855762502867032</v>
       </c>
       <c r="D46">
-        <v>0.01549611127537429</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01149725351838161</v>
+      </c>
+      <c r="E46">
+        <v>0.06296564562106267</v>
+      </c>
+      <c r="F46">
+        <v>0.08023599423155586</v>
+      </c>
+      <c r="G46">
+        <v>0.08437674924456019</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.08964882626454911</v>
+        <v>0.09228879096601017</v>
       </c>
       <c r="C47">
-        <v>0.0684729265508678</v>
+        <v>0.0792601106164883</v>
       </c>
       <c r="D47">
-        <v>0.04254502532821149</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.02474236021124077</v>
+      </c>
+      <c r="E47">
+        <v>0.06739525534909326</v>
+      </c>
+      <c r="F47">
+        <v>0.02345730033870863</v>
+      </c>
+      <c r="G47">
+        <v>0.07800890452078926</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.0190731092027329</v>
+        <v>0.01752652003055006</v>
       </c>
       <c r="C48">
-        <v>0.0138748117601407</v>
+        <v>0.01568346688527942</v>
       </c>
       <c r="D48">
-        <v>0.01639536915109254</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.009921544567748828</v>
+      </c>
+      <c r="E48">
+        <v>0.07497738807987375</v>
+      </c>
+      <c r="F48">
+        <v>0.06271061705260408</v>
+      </c>
+      <c r="G48">
+        <v>0.07320415276179586</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08454065715017564</v>
+        <v>0.07225331250011664</v>
       </c>
       <c r="C50">
-        <v>0.08141102645669282</v>
+        <v>0.0744473062816929</v>
       </c>
       <c r="D50">
-        <v>0.04284423515214072</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.009815245126842245</v>
+      </c>
+      <c r="E50">
+        <v>0.07797544153670739</v>
+      </c>
+      <c r="F50">
+        <v>-0.003146108792849485</v>
+      </c>
+      <c r="G50">
+        <v>0.09196309919205355</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01768656884876246</v>
+        <v>0.0113658284818394</v>
       </c>
       <c r="C51">
-        <v>0.05069340688471253</v>
+        <v>0.03221770908455104</v>
       </c>
       <c r="D51">
-        <v>-0.04042319519032563</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.0553533875317974</v>
+      </c>
+      <c r="E51">
+        <v>0.05461100031035915</v>
+      </c>
+      <c r="F51">
+        <v>0.07074969088341222</v>
+      </c>
+      <c r="G51">
+        <v>0.06029809974187755</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08480497683434003</v>
+        <v>0.09752576202385924</v>
       </c>
       <c r="C53">
-        <v>0.07655091092669293</v>
+        <v>0.08497770335138727</v>
       </c>
       <c r="D53">
-        <v>0.06532164401353996</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.06260344538824085</v>
+      </c>
+      <c r="E53">
+        <v>0.06621555514920313</v>
+      </c>
+      <c r="F53">
+        <v>0.02289701383672593</v>
+      </c>
+      <c r="G53">
+        <v>0.06956897590416454</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03673056629230164</v>
+        <v>0.03004588351073106</v>
       </c>
       <c r="C54">
-        <v>0.03499269727268593</v>
+        <v>0.03122676648154354</v>
       </c>
       <c r="D54">
-        <v>0.004984033371107282</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02314600300823956</v>
+      </c>
+      <c r="E54">
+        <v>0.05943963211290635</v>
+      </c>
+      <c r="F54">
+        <v>0.07103529911672309</v>
+      </c>
+      <c r="G54">
+        <v>0.08639920355764345</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07961297075083479</v>
+        <v>0.08967002818145384</v>
       </c>
       <c r="C55">
-        <v>0.05412780238413599</v>
+        <v>0.06733906513421209</v>
       </c>
       <c r="D55">
-        <v>0.06983982093604639</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.06287672415255267</v>
+      </c>
+      <c r="E55">
+        <v>0.04342676005627479</v>
+      </c>
+      <c r="F55">
+        <v>0.002839420336397891</v>
+      </c>
+      <c r="G55">
+        <v>0.05306371488756358</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1531136763057337</v>
+        <v>0.1553486972665581</v>
       </c>
       <c r="C56">
-        <v>0.08283419762857921</v>
+        <v>0.1005470276752309</v>
       </c>
       <c r="D56">
-        <v>0.06069771502248977</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05653903240889208</v>
+      </c>
+      <c r="E56">
+        <v>0.03899530653606474</v>
+      </c>
+      <c r="F56">
+        <v>-0.01748243824748626</v>
+      </c>
+      <c r="G56">
+        <v>0.02315496902127367</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.05050736398976086</v>
+        <v>0.03111484485893893</v>
       </c>
       <c r="C58">
-        <v>0.0171943906343765</v>
+        <v>0.02037775911074258</v>
       </c>
       <c r="D58">
-        <v>-0.590344141536572</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.3727958761565935</v>
+      </c>
+      <c r="E58">
+        <v>0.6226854513621027</v>
+      </c>
+      <c r="F58">
+        <v>-0.4250279549526993</v>
+      </c>
+      <c r="G58">
+        <v>-0.461596454575884</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1256697217695208</v>
+        <v>0.1404087727378951</v>
       </c>
       <c r="C59">
-        <v>-0.2010979425697368</v>
+        <v>-0.1908500293852083</v>
       </c>
       <c r="D59">
-        <v>-0.02833880596801969</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.02986857914895742</v>
+      </c>
+      <c r="E59">
+        <v>0.02946839217980697</v>
+      </c>
+      <c r="F59">
+        <v>0.03468654763214027</v>
+      </c>
+      <c r="G59">
+        <v>-0.01229941355797771</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3066122183995887</v>
+        <v>0.2766183925782795</v>
       </c>
       <c r="C60">
-        <v>0.1115815389149908</v>
+        <v>0.1071583087665741</v>
       </c>
       <c r="D60">
-        <v>-0.1781161204685225</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2571976495110164</v>
+      </c>
+      <c r="E60">
+        <v>-0.2398957283396895</v>
+      </c>
+      <c r="F60">
+        <v>-0.08845458423778114</v>
+      </c>
+      <c r="G60">
+        <v>0.04128000048822249</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04670469937006655</v>
+        <v>0.04323263807823023</v>
       </c>
       <c r="C61">
-        <v>0.06067638735042417</v>
+        <v>0.05780075882534384</v>
       </c>
       <c r="D61">
-        <v>-0.01441513069804345</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04121724216498845</v>
+      </c>
+      <c r="E61">
+        <v>0.0540701966971847</v>
+      </c>
+      <c r="F61">
+        <v>0.0562879449264576</v>
+      </c>
+      <c r="G61">
+        <v>0.07744362623324938</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01919798237672778</v>
+        <v>0.01739201770388143</v>
       </c>
       <c r="C63">
-        <v>0.0337337922565964</v>
+        <v>0.0305654179973789</v>
       </c>
       <c r="D63">
-        <v>0.02207675588216491</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.01530074176855311</v>
+      </c>
+      <c r="E63">
+        <v>0.06483329225031433</v>
+      </c>
+      <c r="F63">
+        <v>0.03491419605257702</v>
+      </c>
+      <c r="G63">
+        <v>0.07677044881975091</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.05054825967041175</v>
+        <v>0.05698960255773461</v>
       </c>
       <c r="C64">
-        <v>0.04813085489265386</v>
+        <v>0.05784485000858058</v>
       </c>
       <c r="D64">
-        <v>-0.01479848758025198</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.006937419370024243</v>
+      </c>
+      <c r="E64">
+        <v>0.04672472551949107</v>
+      </c>
+      <c r="F64">
+        <v>0.05168396065069043</v>
+      </c>
+      <c r="G64">
+        <v>0.05392906094455565</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.08139433679916147</v>
+        <v>0.06620838776956135</v>
       </c>
       <c r="C65">
-        <v>0.02466809054860072</v>
+        <v>0.02502542211039007</v>
       </c>
       <c r="D65">
-        <v>-0.06256089416148415</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08790106492161685</v>
+      </c>
+      <c r="E65">
+        <v>0.05614724557447772</v>
+      </c>
+      <c r="F65">
+        <v>0.004557574858686351</v>
+      </c>
+      <c r="G65">
+        <v>0.02033999667701243</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06348769970780523</v>
+        <v>0.05448435284386159</v>
       </c>
       <c r="C66">
-        <v>0.0859807797466811</v>
+        <v>0.08055952078454857</v>
       </c>
       <c r="D66">
-        <v>-0.0404720522683714</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.07498967691060125</v>
+      </c>
+      <c r="E66">
+        <v>0.06368276624864809</v>
+      </c>
+      <c r="F66">
+        <v>0.06605326840111998</v>
+      </c>
+      <c r="G66">
+        <v>0.0747441345717194</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05175521510605807</v>
+        <v>0.04499848329384852</v>
       </c>
       <c r="C67">
-        <v>0.03132954115838517</v>
+        <v>0.02843962224746768</v>
       </c>
       <c r="D67">
-        <v>0.02252642612255918</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.003910184507209491</v>
+      </c>
+      <c r="E67">
+        <v>0.02754813008438843</v>
+      </c>
+      <c r="F67">
+        <v>0.02775310081865124</v>
+      </c>
+      <c r="G67">
+        <v>0.03639415326862387</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1211749847488179</v>
+        <v>0.145377780034811</v>
       </c>
       <c r="C68">
-        <v>-0.2812419498486254</v>
+        <v>-0.2450828663321671</v>
       </c>
       <c r="D68">
-        <v>0.008525192821636742</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01652732265523692</v>
+      </c>
+      <c r="E68">
+        <v>0.04307923502793737</v>
+      </c>
+      <c r="F68">
+        <v>0.009437836648203147</v>
+      </c>
+      <c r="G68">
+        <v>0.0304171448616984</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.09246451095029024</v>
+        <v>0.08766584141358144</v>
       </c>
       <c r="C69">
-        <v>0.07223201683010089</v>
+        <v>0.08999643845021547</v>
       </c>
       <c r="D69">
-        <v>0.05179930198871301</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01722752187742166</v>
+      </c>
+      <c r="E69">
+        <v>0.05995479081797397</v>
+      </c>
+      <c r="F69">
+        <v>0.05412513670017418</v>
+      </c>
+      <c r="G69">
+        <v>0.07595816670850056</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1123032354005272</v>
+        <v>0.1398159790748146</v>
       </c>
       <c r="C71">
-        <v>-0.2582969858908048</v>
+        <v>-0.244108890352852</v>
       </c>
       <c r="D71">
-        <v>-0.01145392398429079</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.0006486741263768614</v>
+      </c>
+      <c r="E71">
+        <v>0.05674922360741173</v>
+      </c>
+      <c r="F71">
+        <v>0.01068366028844398</v>
+      </c>
+      <c r="G71">
+        <v>0.06480251765106282</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.09731724433240654</v>
+        <v>0.1042427734785095</v>
       </c>
       <c r="C72">
-        <v>0.04062273405687958</v>
+        <v>0.04897489391056391</v>
       </c>
       <c r="D72">
-        <v>-0.005683690691858909</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.03382351884420617</v>
+      </c>
+      <c r="E72">
+        <v>0.02244603154614656</v>
+      </c>
+      <c r="F72">
+        <v>0.03105922873935324</v>
+      </c>
+      <c r="G72">
+        <v>0.09304363378674381</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.395728635727374</v>
+        <v>0.3349889321122898</v>
       </c>
       <c r="C73">
-        <v>0.04913473750894813</v>
+        <v>0.06994592749659227</v>
       </c>
       <c r="D73">
-        <v>-0.4388651517048142</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.5148036342347564</v>
+      </c>
+      <c r="E73">
+        <v>-0.4482298016626061</v>
+      </c>
+      <c r="F73">
+        <v>-0.2335793654790606</v>
+      </c>
+      <c r="G73">
+        <v>0.01875725832367339</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1087688626270373</v>
+        <v>0.1129702128268403</v>
       </c>
       <c r="C74">
-        <v>0.09227865464820988</v>
+        <v>0.09184658862197101</v>
       </c>
       <c r="D74">
-        <v>0.04659262925461727</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.04783186239991814</v>
+      </c>
+      <c r="E74">
+        <v>0.05666954718843881</v>
+      </c>
+      <c r="F74">
+        <v>-0.008352197300455661</v>
+      </c>
+      <c r="G74">
+        <v>0.04527536792514342</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2584605795048976</v>
+        <v>0.2618976195885074</v>
       </c>
       <c r="C75">
-        <v>0.08958142227854635</v>
+        <v>0.1213311486802348</v>
       </c>
       <c r="D75">
-        <v>0.1364487586686016</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.15044038565754</v>
+      </c>
+      <c r="E75">
+        <v>0.02583621127056857</v>
+      </c>
+      <c r="F75">
+        <v>-0.06590308815250043</v>
+      </c>
+      <c r="G75">
+        <v>-0.05044731541088294</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1170809186179497</v>
+        <v>0.1303935992472009</v>
       </c>
       <c r="C76">
-        <v>0.08089079061143195</v>
+        <v>0.09174204880126884</v>
       </c>
       <c r="D76">
-        <v>0.07612240464332082</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.08234402722037394</v>
+      </c>
+      <c r="E76">
+        <v>0.07174128914518214</v>
+      </c>
+      <c r="F76">
+        <v>0.01251329013064972</v>
+      </c>
+      <c r="G76">
+        <v>0.03353910263275524</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.08067448102173577</v>
+        <v>0.06664969134925174</v>
       </c>
       <c r="C77">
-        <v>0.04487831031567221</v>
+        <v>0.05818497281191807</v>
       </c>
       <c r="D77">
-        <v>-0.05230951928715066</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.0547320150549165</v>
+      </c>
+      <c r="E77">
+        <v>0.09964667320157319</v>
+      </c>
+      <c r="F77">
+        <v>0.1844136201279356</v>
+      </c>
+      <c r="G77">
+        <v>-0.09727103537003401</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04862791389546525</v>
+        <v>0.04710645597617744</v>
       </c>
       <c r="C78">
-        <v>0.03995995579286499</v>
+        <v>0.05155157951568545</v>
       </c>
       <c r="D78">
-        <v>-0.03169440193107189</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.06132020469124529</v>
+      </c>
+      <c r="E78">
+        <v>0.06484612589485636</v>
+      </c>
+      <c r="F78">
+        <v>0.05878748456178385</v>
+      </c>
+      <c r="G78">
+        <v>0.06620194557151066</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>-0.0001691495014035025</v>
+        <v>0.03261103551066194</v>
       </c>
       <c r="C79">
-        <v>0.0005004774251096781</v>
+        <v>0.04751303221987542</v>
       </c>
       <c r="D79">
-        <v>-0.001416255142033838</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.08289021186864776</v>
+      </c>
+      <c r="E79">
+        <v>0.06652583913997009</v>
+      </c>
+      <c r="F79">
+        <v>-0.02389685514879684</v>
+      </c>
+      <c r="G79">
+        <v>0.03130878045831809</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.03967315140971666</v>
+        <v>0.03059802494393472</v>
       </c>
       <c r="C80">
-        <v>0.04854170711957881</v>
+        <v>0.04974576892957337</v>
       </c>
       <c r="D80">
-        <v>-0.03032271272070686</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.03941288759990883</v>
+      </c>
+      <c r="E80">
+        <v>0.01663804439327953</v>
+      </c>
+      <c r="F80">
+        <v>0.05578436914126522</v>
+      </c>
+      <c r="G80">
+        <v>0.002682781777902387</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1433760153249948</v>
+        <v>0.1426771305168977</v>
       </c>
       <c r="C81">
-        <v>0.0729815717517515</v>
+        <v>0.09220014984390816</v>
       </c>
       <c r="D81">
-        <v>0.1108956692235781</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.1263494275625407</v>
+      </c>
+      <c r="E81">
+        <v>0.06846880772825839</v>
+      </c>
+      <c r="F81">
+        <v>-0.02805598608458919</v>
+      </c>
+      <c r="G81">
+        <v>-0.01473982596322031</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1889015363730397</v>
+        <v>0.2240453593655609</v>
       </c>
       <c r="C82">
-        <v>0.08581374546683616</v>
+        <v>0.1494967388727764</v>
       </c>
       <c r="D82">
-        <v>0.1998832905734891</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2530382036473681</v>
+      </c>
+      <c r="E82">
+        <v>-0.0327347676576906</v>
+      </c>
+      <c r="F82">
+        <v>0.04169917133534334</v>
+      </c>
+      <c r="G82">
+        <v>0.06086636449292908</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.04099218049590391</v>
+        <v>0.02763743298455313</v>
       </c>
       <c r="C83">
-        <v>0.03029741755626403</v>
+        <v>0.04409560225143082</v>
       </c>
       <c r="D83">
-        <v>-0.03697160041065047</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03116083918938948</v>
+      </c>
+      <c r="E83">
+        <v>0.02517755949752585</v>
+      </c>
+      <c r="F83">
+        <v>0.04016624398433757</v>
+      </c>
+      <c r="G83">
+        <v>0.005016208919556998</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-0.0002014334791235687</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.0003993158604642709</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.0003239484515437458</v>
+      </c>
+      <c r="E84">
+        <v>0.002903696190110122</v>
+      </c>
+      <c r="F84">
+        <v>-0.001729899483643518</v>
+      </c>
+      <c r="G84">
+        <v>0.001181029715960837</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.219918553844661</v>
+        <v>0.2034872656622503</v>
       </c>
       <c r="C85">
-        <v>0.09092154742551223</v>
+        <v>0.1095922665855012</v>
       </c>
       <c r="D85">
-        <v>0.1680684409563527</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1310301006945672</v>
+      </c>
+      <c r="E85">
+        <v>-0.009368969685918167</v>
+      </c>
+      <c r="F85">
+        <v>-0.1052562255046196</v>
+      </c>
+      <c r="G85">
+        <v>-0.002671722865313204</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.009596533536356035</v>
+        <v>0.01237084110408551</v>
       </c>
       <c r="C86">
-        <v>0.02928024337113475</v>
+        <v>0.01834942282463558</v>
       </c>
       <c r="D86">
-        <v>-0.04446011721456042</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.06187435409229786</v>
+      </c>
+      <c r="E86">
+        <v>0.08292838489790998</v>
+      </c>
+      <c r="F86">
+        <v>0.08320529670691891</v>
+      </c>
+      <c r="G86">
+        <v>0.07629855287330806</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.02528649387176484</v>
+        <v>0.02591442754216654</v>
       </c>
       <c r="C87">
-        <v>0.006557676142555819</v>
+        <v>0.01329316416548329</v>
       </c>
       <c r="D87">
-        <v>-0.08657280608973593</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.08250319256430283</v>
+      </c>
+      <c r="E87">
+        <v>0.1317080107457927</v>
+      </c>
+      <c r="F87">
+        <v>0.07924366898731217</v>
+      </c>
+      <c r="G87">
+        <v>0.007252478438219426</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1106448308789987</v>
+        <v>0.09404908973989935</v>
       </c>
       <c r="C88">
-        <v>0.07486742313864676</v>
+        <v>0.06327172336083356</v>
       </c>
       <c r="D88">
-        <v>0.0229420800955751</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.008977039549710747</v>
+      </c>
+      <c r="E88">
+        <v>0.05326279629451209</v>
+      </c>
+      <c r="F88">
+        <v>0.04645635521130263</v>
+      </c>
+      <c r="G88">
+        <v>0.03812455284626171</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1771219778259845</v>
+        <v>0.2133969347378896</v>
       </c>
       <c r="C89">
-        <v>-0.3852771908488175</v>
+        <v>-0.3870181235462822</v>
       </c>
       <c r="D89">
-        <v>0.02405405827729877</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.01505596215536665</v>
+      </c>
+      <c r="E89">
+        <v>0.06847360861559208</v>
+      </c>
+      <c r="F89">
+        <v>0.08785640751146569</v>
+      </c>
+      <c r="G89">
+        <v>-0.001192162445770866</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1700775944850841</v>
+        <v>0.1937690128740051</v>
       </c>
       <c r="C90">
-        <v>-0.336305723172413</v>
+        <v>-0.3127669455271023</v>
       </c>
       <c r="D90">
-        <v>0.03701762984564671</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.02238837167615609</v>
+      </c>
+      <c r="E90">
+        <v>0.05609865820837878</v>
+      </c>
+      <c r="F90">
+        <v>0.03067107776360643</v>
+      </c>
+      <c r="G90">
+        <v>0.01200301240751756</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1927572316389172</v>
+        <v>0.1897056615298949</v>
       </c>
       <c r="C91">
-        <v>0.123148941848421</v>
+        <v>0.1390740436675953</v>
       </c>
       <c r="D91">
-        <v>0.1322802438007882</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1304301244878531</v>
+      </c>
+      <c r="E91">
+        <v>0.04268000469765241</v>
+      </c>
+      <c r="F91">
+        <v>-0.0206604903237964</v>
+      </c>
+      <c r="G91">
+        <v>-0.006255958784491385</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1576228942787357</v>
+        <v>0.1771316716855637</v>
       </c>
       <c r="C92">
-        <v>-0.2943860114507851</v>
+        <v>-0.2978423066918766</v>
       </c>
       <c r="D92">
-        <v>0.01473401524244658</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.01596801264264422</v>
+      </c>
+      <c r="E92">
+        <v>0.06297018916388195</v>
+      </c>
+      <c r="F92">
+        <v>0.0557012535919389</v>
+      </c>
+      <c r="G92">
+        <v>0.0313541110449654</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1888371079397678</v>
+        <v>0.2143562120226263</v>
       </c>
       <c r="C93">
-        <v>-0.3413124103503318</v>
+        <v>-0.3227080585499025</v>
       </c>
       <c r="D93">
-        <v>0.03678024907617992</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.0188858416285395</v>
+      </c>
+      <c r="E93">
+        <v>0.03837627371039173</v>
+      </c>
+      <c r="F93">
+        <v>0.00292101755081902</v>
+      </c>
+      <c r="G93">
+        <v>0.04084799135728957</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3409122915710578</v>
+        <v>0.3433284447797917</v>
       </c>
       <c r="C94">
-        <v>0.1202250519147798</v>
+        <v>0.1695524448415187</v>
       </c>
       <c r="D94">
-        <v>0.37658130238958</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4071732218879107</v>
+      </c>
+      <c r="E94">
+        <v>-0.01066441983170702</v>
+      </c>
+      <c r="F94">
+        <v>-0.119139733622018</v>
+      </c>
+      <c r="G94">
+        <v>-0.3993926647517724</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1246861314272901</v>
+        <v>0.09180952208251736</v>
       </c>
       <c r="C95">
-        <v>0.05406821694062566</v>
+        <v>0.05763404939911967</v>
       </c>
       <c r="D95">
-        <v>-0.2144696415290437</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.2018848985506601</v>
+      </c>
+      <c r="E95">
+        <v>-0.1170807794378024</v>
+      </c>
+      <c r="F95">
+        <v>0.7085660264022412</v>
+      </c>
+      <c r="G95">
+        <v>-0.5656760460997845</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.191913628742276</v>
+        <v>0.1865964183466908</v>
       </c>
       <c r="C98">
-        <v>0.02915890085364256</v>
+        <v>0.0481258209916624</v>
       </c>
       <c r="D98">
-        <v>-0.1596589298945189</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.203220000172976</v>
+      </c>
+      <c r="E98">
+        <v>-0.1344974986585278</v>
+      </c>
+      <c r="F98">
+        <v>-0.08158566355620367</v>
+      </c>
+      <c r="G98">
+        <v>0.08054615943859766</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.007771017485983457</v>
+        <v>0.006570327372667922</v>
       </c>
       <c r="C101">
-        <v>0.03317914626663006</v>
+        <v>0.02781512208892392</v>
       </c>
       <c r="D101">
-        <v>0.01367635056675698</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01576502212015399</v>
+      </c>
+      <c r="E101">
+        <v>0.05353594305651214</v>
+      </c>
+      <c r="F101">
+        <v>0.0680320326475595</v>
+      </c>
+      <c r="G101">
+        <v>0.08606292990872426</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1237641654524147</v>
+        <v>0.1268677122352199</v>
       </c>
       <c r="C102">
-        <v>0.06783479557972394</v>
+        <v>0.09842864563398125</v>
       </c>
       <c r="D102">
-        <v>0.04917839591947114</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.05935589264652848</v>
+      </c>
+      <c r="E102">
+        <v>-0.01479135293282219</v>
+      </c>
+      <c r="F102">
+        <v>0.02153430777483199</v>
+      </c>
+      <c r="G102">
+        <v>-0.01348399042026383</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
